--- a/개인 공부/컴활/3일차(PART-1)셀서식_문제.xlsx
+++ b/개인 공부/컴활/3일차(PART-1)셀서식_문제.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missi\Documents\01_중요자료\04_컴활2급실기\11_5일만에 끝내기(2023)\2일차\2일차_1(셀서식)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\컴활2급실기_5일만에 합격하기_버전2.2\5일만에 합격하기_자료집\3일차\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3BECB6-2F50-4DA4-8CC9-2B4BA3CB4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9278" activeTab="4"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="셀서식1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,111 @@
     <definedName name="배점" localSheetId="4">셀서식5!#REF!</definedName>
     <definedName name="배점">셀서식2!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{3A59AA92-AA20-4831-A131-6E9B6346F4F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할인쿠폰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F0503D70-6577-42C2-B622-30386B19209F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>베스트셀러</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
@@ -120,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>육류 소비 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접수일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,18 +530,38 @@
   </si>
   <si>
     <t>구성비</t>
+  </si>
+  <si>
+    <t>映畵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話番號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="15">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="dd&quot;일&quot;\(aaaa\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;GP&quot;\-000"/>
+    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="0&quot;장&quot;"/>
+    <numFmt numFmtId="182" formatCode="@&quot;할인&quot;"/>
+    <numFmt numFmtId="183" formatCode="#,##0,,&quot;백만KG&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;*&quot;0&quot;년&quot;"/>
+    <numFmt numFmtId="185" formatCode="dd\(aaaa\)"/>
+    <numFmt numFmtId="186" formatCode="000\-000"/>
+    <numFmt numFmtId="188" formatCode="yy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\(aaaa\)"/>
+    <numFmt numFmtId="189" formatCode="0_ "/>
+    <numFmt numFmtId="190" formatCode="#,##0_ "/>
+    <numFmt numFmtId="191" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,16 +577,165 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="doubleAccounting"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="doubleAccounting"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -485,57 +743,469 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="13" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="강조색1" xfId="2" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="3" builtinId="33"/>
+    <cellStyle name="보통" xfId="4" builtinId="28"/>
+    <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,20 +1238,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="311510" y="1946414"/>
-          <a:ext cx="6596185" cy="2956891"/>
+          <a:off x="314367" y="1974327"/>
+          <a:ext cx="6607657" cy="2916678"/>
           <a:chOff x="311510" y="1871871"/>
           <a:chExt cx="6592044" cy="2849217"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="그림 2"/>
+          <xdr:cNvPr id="3" name="그림 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -614,7 +1296,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="그림 3"/>
+          <xdr:cNvPr id="4" name="그림 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -647,7 +1335,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="그림 4"/>
+          <xdr:cNvPr id="5" name="그림 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -946,11 +1640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -964,13 +1658,21 @@
     <col min="9" max="9" width="11.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="H2" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="4">
@@ -978,382 +1680,407 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>44776</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>11000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <f>F4*G4</f>
         <v>44000</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f>B4+7</f>
         <v>44783</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>11000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H8" si="0">F5*G5</f>
         <v>22000</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:B8" si="1">B5+7</f>
         <v>44790</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>11000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>44797</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.81944444444444453</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>15000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="1">
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="17">
         <f t="shared" si="1"/>
         <v>44804</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="18">
         <v>0.88194444444444453</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="20">
         <v>15000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="21">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="13.9375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.4375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.6875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.4375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="15.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:11" ht="27" x14ac:dyDescent="0.6">
+      <c r="B1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B3" s="37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B4" s="38"/>
+      <c r="C4" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B5" s="26">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="24">
+        <v>582700000</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1272382000</v>
+      </c>
+      <c r="E5" s="24">
+        <v>696600000</v>
+      </c>
+      <c r="F5" s="24">
+        <v>2551682000</v>
+      </c>
+      <c r="G5" s="25">
+        <v>11.3</v>
+      </c>
+      <c r="H5" s="25">
+        <v>24.5</v>
+      </c>
+      <c r="I5" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>49.1</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B6" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="24">
+        <v>653700000</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1334452000</v>
+      </c>
+      <c r="E6" s="24">
+        <v>772000000</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2760152000</v>
+      </c>
+      <c r="G6" s="25">
+        <v>12.7</v>
+      </c>
+      <c r="H6" s="25">
+        <v>27</v>
+      </c>
+      <c r="I6" s="25">
+        <v>14.2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>53.9</v>
+      </c>
+      <c r="K6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B7" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="24">
+        <v>672000000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1390000000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>761700000</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2823700000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>13</v>
+      </c>
+      <c r="H7" s="25">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B5" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C5" s="7">
-        <v>582700000</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1272382000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>696600000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2551682000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="H5" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="I5" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B6" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C6" s="7">
-        <v>653700000</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1334452000</v>
-      </c>
-      <c r="E6" s="7">
-        <v>772000000</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2760152000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="H6" s="6">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>53.9</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="I7" s="25">
+        <v>14.8</v>
+      </c>
+      <c r="J7" s="25">
+        <v>55.8</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B7" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="7">
-        <v>672000000</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1390000000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>761700000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2823700000</v>
-      </c>
-      <c r="G7" s="6">
+    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="29">
+        <v>668000000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1325000000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>727600000</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2720600000</v>
+      </c>
+      <c r="G8" s="30">
         <v>13</v>
       </c>
-      <c r="H7" s="6">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="J7" s="6">
-        <v>55.8</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="H8" s="30">
+        <v>26</v>
+      </c>
+      <c r="I8" s="30">
+        <v>14.7</v>
+      </c>
+      <c r="J8" s="30">
+        <v>53.7</v>
+      </c>
+      <c r="K8" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B8" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="7">
-        <v>668000000</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1325000000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>727600000</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2720600000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6">
-        <v>14.7</v>
-      </c>
-      <c r="J8" s="6">
-        <v>53.7</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1361,362 +2088,386 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="15.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="43">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="44">
+        <v>44626</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="9">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="44">
         <v>44626</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="43">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="44">
+        <v>44635</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="43">
         <v>2021</v>
       </c>
-      <c r="E5" s="9">
-        <v>44626</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E6" s="9">
-        <v>44635</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="44">
+        <v>44643</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="8">
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="50">
         <v>2021</v>
       </c>
-      <c r="E7" s="9">
-        <v>44643</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="51">
+        <v>44653</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="8">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44653</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="11.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="A1" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A3" s="56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="B4" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="54">
+        <v>44655</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="G4" s="55">
+        <v>125000</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="12">
+      <c r="I4" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="54">
         <v>44655</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="55">
+        <v>110000</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="54">
+        <v>44657</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="55">
+        <v>125000</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="11">
-        <v>125000</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="54">
+        <v>44657</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="55">
+        <v>140000</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="12">
-        <v>44655</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="11">
-        <v>110000</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="54">
         <v>44657</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="55">
+        <v>135000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="59">
+        <v>44658</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="60">
+        <v>135000</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="11">
-        <v>125000</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="12">
-        <v>44657</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="11">
-        <v>140000</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="12">
-        <v>44657</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="11">
-        <v>135000</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="12">
-        <v>44658</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="11">
-        <v>135000</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1724,300 +2475,321 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
-    <col min="2" max="5" width="9.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="9.875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="I3" s="5" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="B4" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2020</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="70"/>
+      <c r="B5" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="C5" s="63" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="64">
+        <v>19112</v>
+      </c>
+      <c r="C6" s="64">
+        <v>5211</v>
+      </c>
+      <c r="D6" s="64">
+        <v>20927</v>
+      </c>
+      <c r="E6" s="64">
+        <v>6643</v>
+      </c>
+      <c r="F6" s="64">
+        <v>1815</v>
+      </c>
+      <c r="G6" s="64">
+        <v>1432</v>
+      </c>
+      <c r="H6" s="62">
+        <v>9.5</v>
+      </c>
+      <c r="I6" s="73">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="65">
+        <v>1272</v>
+      </c>
+      <c r="C7" s="65">
+        <v>878</v>
+      </c>
+      <c r="D7" s="65">
+        <v>1774</v>
+      </c>
+      <c r="E7" s="65">
+        <v>1343</v>
+      </c>
+      <c r="F7" s="65">
+        <v>502</v>
+      </c>
+      <c r="G7" s="65">
+        <v>465</v>
+      </c>
+      <c r="H7" s="66">
+        <v>39.5</v>
+      </c>
+      <c r="I7" s="74">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
-        <v>19112</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5211</v>
-      </c>
-      <c r="D6" s="6">
-        <v>20927</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6643</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1815</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1432</v>
-      </c>
-      <c r="H6" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="I6" s="6">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="65">
+        <v>3084</v>
+      </c>
+      <c r="C8" s="65">
+        <v>823</v>
+      </c>
+      <c r="D8" s="65">
+        <v>3123</v>
+      </c>
+      <c r="E8" s="65">
+        <v>1115</v>
+      </c>
+      <c r="F8" s="65">
+        <v>38</v>
+      </c>
+      <c r="G8" s="65">
+        <v>292</v>
+      </c>
+      <c r="H8" s="66">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="74">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="6">
-        <v>1272</v>
-      </c>
-      <c r="C7" s="6">
-        <v>878</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1774</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1343</v>
-      </c>
-      <c r="F7" s="6">
-        <v>502</v>
-      </c>
-      <c r="G7" s="6">
-        <v>465</v>
-      </c>
-      <c r="H7" s="13">
-        <v>39.5</v>
-      </c>
-      <c r="I7" s="13">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="65">
+        <v>4413</v>
+      </c>
+      <c r="C9" s="65">
+        <v>760</v>
+      </c>
+      <c r="D9" s="65">
+        <v>4260</v>
+      </c>
+      <c r="E9" s="65">
+        <v>904</v>
+      </c>
+      <c r="F9" s="65">
+        <v>-154</v>
+      </c>
+      <c r="G9" s="65">
+        <v>144</v>
+      </c>
+      <c r="H9" s="66">
+        <v>-3.5</v>
+      </c>
+      <c r="I9" s="74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="6">
-        <v>3084</v>
-      </c>
-      <c r="C8" s="6">
-        <v>823</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3123</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1115</v>
-      </c>
-      <c r="F8" s="6">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6">
-        <v>292</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="13">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="65">
+        <v>4589</v>
+      </c>
+      <c r="C10" s="65">
+        <v>861</v>
+      </c>
+      <c r="D10" s="65">
+        <v>4810</v>
+      </c>
+      <c r="E10" s="65">
+        <v>1039</v>
+      </c>
+      <c r="F10" s="65">
+        <v>220</v>
+      </c>
+      <c r="G10" s="65">
+        <v>179</v>
+      </c>
+      <c r="H10" s="66">
+        <v>4.8</v>
+      </c>
+      <c r="I10" s="74">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A11" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="6">
-        <v>4413</v>
-      </c>
-      <c r="C9" s="6">
-        <v>760</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4260</v>
-      </c>
-      <c r="E9" s="6">
-        <v>904</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-154</v>
-      </c>
-      <c r="G9" s="6">
-        <v>144</v>
-      </c>
-      <c r="H9" s="13">
-        <v>-3.5</v>
-      </c>
-      <c r="I9" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="65">
+        <v>2960</v>
+      </c>
+      <c r="C11" s="65">
+        <v>735</v>
+      </c>
+      <c r="D11" s="65">
+        <v>3787</v>
+      </c>
+      <c r="E11" s="65">
+        <v>1039</v>
+      </c>
+      <c r="F11" s="65">
+        <v>827</v>
+      </c>
+      <c r="G11" s="65">
+        <v>304</v>
+      </c>
+      <c r="H11" s="66">
+        <v>27.9</v>
+      </c>
+      <c r="I11" s="74">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A12" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="6">
-        <v>4589</v>
-      </c>
-      <c r="C10" s="6">
-        <v>861</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4810</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1039</v>
-      </c>
-      <c r="F10" s="6">
-        <v>220</v>
-      </c>
-      <c r="G10" s="6">
-        <v>179</v>
-      </c>
-      <c r="H10" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="I10" s="13">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="65">
+        <v>2794</v>
+      </c>
+      <c r="C12" s="65">
+        <v>1154</v>
+      </c>
+      <c r="D12" s="65">
+        <v>3174</v>
+      </c>
+      <c r="E12" s="65">
+        <v>1202</v>
+      </c>
+      <c r="F12" s="65">
+        <v>381</v>
+      </c>
+      <c r="G12" s="65">
+        <v>49</v>
+      </c>
+      <c r="H12" s="66">
+        <v>13.6</v>
+      </c>
+      <c r="I12" s="74">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="6">
-        <v>2960</v>
-      </c>
-      <c r="C11" s="6">
-        <v>735</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3787</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1039</v>
-      </c>
-      <c r="F11" s="6">
-        <v>827</v>
-      </c>
-      <c r="G11" s="6">
-        <v>304</v>
-      </c>
-      <c r="H11" s="13">
-        <v>27.9</v>
-      </c>
-      <c r="I11" s="13">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2794</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1154</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3174</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1202</v>
-      </c>
-      <c r="F12" s="6">
-        <v>381</v>
-      </c>
-      <c r="G12" s="6">
-        <v>49</v>
-      </c>
-      <c r="H12" s="13">
-        <v>13.6</v>
-      </c>
-      <c r="I12" s="13">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B13" s="76">
         <v>100</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="76">
         <v>100</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="76">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="76">
         <v>100</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="76">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="76">
         <v>0</v>
       </c>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
